--- a/biology/Zoologie/Dorking_(poule)/Dorking_(poule).xlsx
+++ b/biology/Zoologie/Dorking_(poule)/Dorking_(poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La poule de Dorking est une race ancienne de poule domestique à l'origine de la Faverolles française et de la poule de Sussex.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dorking a un corps rectangulaire avec des tarses clairs et cinq doigts plutôt petits. Elle a besoin de protection l'hiver. Elle est élevée à deux fins, c'est-à-dire pour sa chair bien goûteuse et ses œufs. La poule est une excellente couveuse, qui a besoin d'espace et qui craint l'humidité. Le coq peut parfois dépasser les six kilos.
 </t>
@@ -546,7 +560,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La dorking est une race ancienne, déjà présente à l'arrivée des Romains en Angleterre, puisque Columelle la décrit exactement au milieu du Ier siècle apr. J.-C. Ainsi dans ses Libri de re rustica, il évoque une poule à cinq doigts à la poitrine large, au corps solide et carré avec une grosse tête et une crête dressée. 
 La race s'est développée au cours des siècles, jusqu'à ce qu'elle soit fixée au XIXe siècle et que des spécimens apparaissent sur les lieux d'exposition, comme le premier Poultry Show de 1845 en Angleterre. 
@@ -579,7 +595,9 @@
           <t>Standard officiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Masse idéale : coq : 4,55 à 6,35 kg ; poule : 3,6 à 4,55 kg
 Crête : simple, de moyenne à grande. crête frisée admise
@@ -622,7 +640,9 @@
           <t>Dorking aux œufs bleus ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces dernières années sont apparues des « pseudos » dorking, qui différent légèrement des vraies dorking par le phénotype, et qui ont comme caractéristique génotypique particulière de pondre des œufs bleus ; caractéristique génétique spécifique de l'araucana, qui lui a été introduit dans son patrimoine génétique.
 Ces sujets ne sont pas exposables en tant que dorking pure race.
